--- a/PigLatinResults/Devices/top 10 device - big table.xlsx
+++ b/PigLatinResults/Devices/top 10 device - big table.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Véronique\School\Twente\BigDataManagement\Project\BigData\Shouting-Big-Data\PigLatinResults\Devices\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Twitter for iPhone</t>
   </si>
@@ -25,9 +30,6 @@
   </si>
   <si>
     <t>Twitter for Android</t>
-  </si>
-  <si>
-    <t>Twitter for  Android</t>
   </si>
   <si>
     <t>Twitter for iPad</t>
@@ -57,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +100,42 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Feuil1!$A$1:$A$10</c:f>
@@ -128,7 +151,7 @@
                   <c:v>Twitter Web Client</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Twitter for  Android</c:v>
+                  <c:v>Twitter for Android</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Twitter for iPad</c:v>
@@ -191,37 +214,56 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86392832"/>
-        <c:axId val="86394368"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="261312448"/>
+        <c:axId val="212964688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86392832"/>
+        <c:axId val="261312448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86394368"/>
+        <c:crossAx val="212964688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86394368"/>
+        <c:axId val="212964688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86392832"/>
+        <c:crossAx val="261312448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -233,7 +275,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -252,7 +304,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -261,8 +315,25 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -279,7 +350,7 @@
                   <c:v>Twitter Web Client</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Twitter for  Android</c:v>
+                  <c:v>Twitter for Android</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Twitter for iPad</c:v>
@@ -349,7 +420,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -357,8 +434,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -476,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,9 +588,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,6 +623,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,19 +799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +819,7 @@
         <v>4823831</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -745,7 +827,7 @@
         <v>3390572</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -753,74 +835,74 @@
         <v>3335317</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>551797</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>416888</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>380290</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>280947</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>206203</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>198428</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>179280</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <f xml:space="preserve"> 15873890- SUM(B1:B10)</f>
         <v>2110337</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -830,24 +912,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
